--- a/InputData/bldgs/SoBCaICbIC/Shr of Bldg Cap and Instl Costs by ISIC Code.xlsx
+++ b/InputData/bldgs/SoBCaICbIC/Shr of Bldg Cap and Instl Costs by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US-EPS\InputData\bldgs\SoBCaICbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shelley\Dropbox (Energy Innovation)\PC (2)\Documents\GitHub_Repositories\eps-us\InputData\bldgs\SoBCaICbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3843B721-B944-4A09-8322-8FE8024BF677}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D041B8C-C378-4DA5-819F-654DCE2247C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15345" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="940" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Summary_Com Appliances" sheetId="14" r:id="rId6"/>
     <sheet name="Summary_Res Appliances" sheetId="13" r:id="rId7"/>
     <sheet name="Cost Breakdowns" sheetId="16" r:id="rId8"/>
-    <sheet name="Res_Prev" sheetId="7" r:id="rId9"/>
+    <sheet name="AEO21 Table 21" sheetId="7" r:id="rId9"/>
     <sheet name="SoBCaICbIC-urbanresidential" sheetId="19" r:id="rId10"/>
     <sheet name="SoBCaICbIC-ruralresidential" sheetId="20" r:id="rId11"/>
     <sheet name="SoBCaICbIC-commercial" sheetId="21" r:id="rId12"/>
@@ -3537,25 +3537,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="76.85546875" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="63.42578125" customWidth="1"/>
+    <col min="2" max="2" width="76.81640625" customWidth="1"/>
+    <col min="3" max="3" width="43.1796875" customWidth="1"/>
+    <col min="4" max="4" width="65.7265625" customWidth="1"/>
+    <col min="5" max="5" width="5.7265625" customWidth="1"/>
+    <col min="6" max="6" width="63.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -3563,151 +3563,151 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>474</v>
       </c>
       <c r="C21" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B24" s="3" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <v>2008</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="111" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="113" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="112" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="112" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="105"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="105" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="105"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="105" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="105"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="105" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="105"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="105" t="s">
         <v>444</v>
       </c>
@@ -3730,15 +3730,17 @@
   </sheetPr>
   <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="43" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="2" max="43" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" s="98" t="s">
         <v>449</v>
       </c>
@@ -3869,7 +3871,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" s="63" t="s">
         <v>324</v>
       </c>
@@ -4042,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>325</v>
       </c>
@@ -4215,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" s="63" t="s">
         <v>437</v>
       </c>
@@ -4388,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" s="63" t="s">
         <v>331</v>
       </c>
@@ -4561,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" s="63" t="s">
         <v>393</v>
       </c>
@@ -4734,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" s="63" t="s">
         <v>72</v>
       </c>
@@ -4920,15 +4922,17 @@
   </sheetPr>
   <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="43" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="2" max="43" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" s="98" t="s">
         <v>449</v>
       </c>
@@ -5059,7 +5063,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" s="63" t="s">
         <v>324</v>
       </c>
@@ -5232,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>325</v>
       </c>
@@ -5405,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" s="63" t="s">
         <v>437</v>
       </c>
@@ -5578,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" s="63" t="s">
         <v>331</v>
       </c>
@@ -5751,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" s="63" t="s">
         <v>393</v>
       </c>
@@ -5924,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" s="63" t="s">
         <v>72</v>
       </c>
@@ -6109,15 +6113,17 @@
   </sheetPr>
   <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="43" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="2" max="43" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" s="98" t="s">
         <v>449</v>
       </c>
@@ -6248,7 +6254,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" s="63" t="s">
         <v>324</v>
       </c>
@@ -6421,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>325</v>
       </c>
@@ -6594,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" s="63" t="s">
         <v>437</v>
       </c>
@@ -6767,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" s="63" t="s">
         <v>331</v>
       </c>
@@ -6940,7 +6946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" s="63" t="s">
         <v>393</v>
       </c>
@@ -7113,7 +7119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" s="63" t="s">
         <v>72</v>
       </c>
@@ -7297,18 +7303,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="11" width="7.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" customWidth="1"/>
+    <col min="3" max="11" width="7.7265625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="127" t="s">
         <v>156</v>
       </c>
@@ -7322,7 +7328,7 @@
       <c r="J2" s="128"/>
       <c r="K2" s="128"/>
     </row>
-    <row r="3" spans="2:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="11"/>
       <c r="C3" s="129" t="s">
         <v>157</v>
@@ -7336,7 +7342,7 @@
       <c r="J3" s="131"/>
       <c r="K3" s="131"/>
     </row>
-    <row r="4" spans="2:11" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11"/>
       <c r="C4" s="132" t="s">
         <v>158</v>
@@ -7354,7 +7360,7 @@
       <c r="J4" s="137"/>
       <c r="K4" s="137"/>
     </row>
-    <row r="5" spans="2:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="12"/>
       <c r="C5" s="133" t="s">
         <v>158</v>
@@ -7382,7 +7388,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B6" s="14" t="s">
         <v>167</v>
       </c>
@@ -7414,7 +7420,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
         <v>168</v>
       </c>
@@ -7446,7 +7452,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="19" t="s">
         <v>170</v>
       </c>
@@ -7478,7 +7484,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19" t="s">
         <v>172</v>
       </c>
@@ -7510,7 +7516,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19" t="s">
         <v>173</v>
       </c>
@@ -7542,7 +7548,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
         <v>174</v>
       </c>
@@ -7574,7 +7580,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>175</v>
       </c>
@@ -7606,7 +7612,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19" t="s">
         <v>176</v>
       </c>
@@ -7638,7 +7644,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
         <v>177</v>
       </c>
@@ -7670,7 +7676,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="19" t="s">
         <v>178</v>
       </c>
@@ -7702,7 +7708,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="17" t="s">
         <v>179</v>
       </c>
@@ -7734,7 +7740,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" s="19" t="s">
         <v>180</v>
       </c>
@@ -7766,7 +7772,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18" s="19" t="s">
         <v>181</v>
       </c>
@@ -7798,7 +7804,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" s="19" t="s">
         <v>183</v>
       </c>
@@ -7830,7 +7836,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" s="19" t="s">
         <v>184</v>
       </c>
@@ -7862,7 +7868,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" s="20" t="s">
         <v>185</v>
       </c>
@@ -7894,7 +7900,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" s="20" t="s">
         <v>186</v>
       </c>
@@ -7926,7 +7932,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" s="19" t="s">
         <v>187</v>
       </c>
@@ -7958,7 +7964,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" s="19" t="s">
         <v>188</v>
       </c>
@@ -7991,7 +7997,7 @@
       </c>
       <c r="N24" s="21"/>
     </row>
-    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="22" t="s">
         <v>189</v>
       </c>
@@ -8023,7 +8029,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="22" t="s">
         <v>190</v>
       </c>
@@ -8055,7 +8061,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="19" t="s">
         <v>191</v>
       </c>
@@ -8087,7 +8093,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="19" t="s">
         <v>192</v>
       </c>
@@ -8119,7 +8125,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="19" t="s">
         <v>193</v>
       </c>
@@ -8151,7 +8157,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="19" t="s">
         <v>194</v>
       </c>
@@ -8183,7 +8189,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="19" t="s">
         <v>195</v>
       </c>
@@ -8215,7 +8221,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="19" t="s">
         <v>196</v>
       </c>
@@ -8247,7 +8253,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="19" t="s">
         <v>197</v>
       </c>
@@ -8279,7 +8285,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="19" t="s">
         <v>198</v>
       </c>
@@ -8311,7 +8317,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="17" t="s">
         <v>199</v>
       </c>
@@ -8343,7 +8349,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="19" t="s">
         <v>200</v>
       </c>
@@ -8375,7 +8381,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="19" t="s">
         <v>201</v>
       </c>
@@ -8407,7 +8413,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="19" t="s">
         <v>202</v>
       </c>
@@ -8439,7 +8445,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="19" t="s">
         <v>203</v>
       </c>
@@ -8471,7 +8477,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="19" t="s">
         <v>204</v>
       </c>
@@ -8503,7 +8509,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="19" t="s">
         <v>205</v>
       </c>
@@ -8535,7 +8541,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="19" t="s">
         <v>206</v>
       </c>
@@ -8567,7 +8573,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="19" t="s">
         <v>207</v>
       </c>
@@ -8599,7 +8605,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="19" t="s">
         <v>208</v>
       </c>
@@ -8631,7 +8637,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="19" t="s">
         <v>209</v>
       </c>
@@ -8663,7 +8669,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="17" t="s">
         <v>210</v>
       </c>
@@ -8695,7 +8701,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="19" t="s">
         <v>211</v>
       </c>
@@ -8727,7 +8733,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="20" t="s">
         <v>212</v>
       </c>
@@ -8759,7 +8765,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="20" t="s">
         <v>213</v>
       </c>
@@ -8791,7 +8797,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="19" t="s">
         <v>214</v>
       </c>
@@ -8823,7 +8829,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="20" t="s">
         <v>215</v>
       </c>
@@ -8855,7 +8861,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="20" t="s">
         <v>216</v>
       </c>
@@ -8887,7 +8893,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="19" t="s">
         <v>217</v>
       </c>
@@ -8919,7 +8925,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="20" t="s">
         <v>218</v>
       </c>
@@ -8951,7 +8957,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="20" t="s">
         <v>219</v>
       </c>
@@ -8983,7 +8989,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="20" t="s">
         <v>220</v>
       </c>
@@ -9015,7 +9021,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="19" t="s">
         <v>221</v>
       </c>
@@ -9047,7 +9053,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="20" t="s">
         <v>222</v>
       </c>
@@ -9079,7 +9085,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="20" t="s">
         <v>223</v>
       </c>
@@ -9111,7 +9117,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="17" t="s">
         <v>224</v>
       </c>
@@ -9143,7 +9149,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B61" s="19" t="s">
         <v>225</v>
       </c>
@@ -9175,7 +9181,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B62" s="19" t="s">
         <v>226</v>
       </c>
@@ -9207,7 +9213,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B63" s="19" t="s">
         <v>227</v>
       </c>
@@ -9239,7 +9245,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B64" s="19" t="s">
         <v>228</v>
       </c>
@@ -9271,7 +9277,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B65" s="19" t="s">
         <v>229</v>
       </c>
@@ -9303,7 +9309,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="17" t="s">
         <v>230</v>
       </c>
@@ -9335,7 +9341,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B67" s="19" t="s">
         <v>231</v>
       </c>
@@ -9367,7 +9373,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B68" s="19" t="s">
         <v>232</v>
       </c>
@@ -9399,7 +9405,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B69" s="19" t="s">
         <v>233</v>
       </c>
@@ -9431,7 +9437,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B70" s="19" t="s">
         <v>234</v>
       </c>
@@ -9463,7 +9469,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B71" s="19" t="s">
         <v>235</v>
       </c>
@@ -9495,7 +9501,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="72" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="17" t="s">
         <v>236</v>
       </c>
@@ -9527,7 +9533,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="19" t="s">
         <v>237</v>
       </c>
@@ -9559,7 +9565,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="19" t="s">
         <v>238</v>
       </c>
@@ -9591,7 +9597,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="19" t="s">
         <v>239</v>
       </c>
@@ -9623,7 +9629,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="19" t="s">
         <v>240</v>
       </c>
@@ -9655,7 +9661,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="19" t="s">
         <v>241</v>
       </c>
@@ -9687,7 +9693,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="19" t="s">
         <v>242</v>
       </c>
@@ -9719,7 +9725,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="19" t="s">
         <v>243</v>
       </c>
@@ -9751,7 +9757,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="17" t="s">
         <v>244</v>
       </c>
@@ -9783,7 +9789,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="19" t="s">
         <v>245</v>
       </c>
@@ -9815,7 +9821,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="19" t="s">
         <v>246</v>
       </c>
@@ -9847,7 +9853,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="19" t="s">
         <v>247</v>
       </c>
@@ -9879,7 +9885,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="19" t="s">
         <v>248</v>
       </c>
@@ -9911,7 +9917,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="85" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="19" t="s">
         <v>249</v>
       </c>
@@ -9943,7 +9949,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="86" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="19" t="s">
         <v>250</v>
       </c>
@@ -9975,7 +9981,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="17" t="s">
         <v>251</v>
       </c>
@@ -10007,7 +10013,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="19" t="s">
         <v>252</v>
       </c>
@@ -10039,7 +10045,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="89" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="20" t="s">
         <v>253</v>
       </c>
@@ -10071,7 +10077,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="90" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="20" t="s">
         <v>254</v>
       </c>
@@ -10103,7 +10109,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="91" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="20" t="s">
         <v>255</v>
       </c>
@@ -10135,7 +10141,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="20" t="s">
         <v>256</v>
       </c>
@@ -10167,7 +10173,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="93" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="19" t="s">
         <v>257</v>
       </c>
@@ -10199,7 +10205,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="20" t="s">
         <v>258</v>
       </c>
@@ -10231,7 +10237,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="95" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="20" t="s">
         <v>259</v>
       </c>
@@ -10263,7 +10269,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="96" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="20" t="s">
         <v>260</v>
       </c>
@@ -10295,7 +10301,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="2:11" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" ht="46" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="17" t="s">
         <v>261</v>
       </c>
@@ -10327,7 +10333,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="19" t="s">
         <v>262</v>
       </c>
@@ -10359,7 +10365,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="19" t="s">
         <v>263</v>
       </c>
@@ -10391,7 +10397,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="19" t="s">
         <v>264</v>
       </c>
@@ -10423,7 +10429,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="19" t="s">
         <v>72</v>
       </c>
@@ -10455,7 +10461,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="102" spans="2:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="17" t="s">
         <v>265</v>
       </c>
@@ -10487,7 +10493,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="19" t="s">
         <v>262</v>
       </c>
@@ -10519,7 +10525,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="19" t="s">
         <v>263</v>
       </c>
@@ -10551,7 +10557,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="19" t="s">
         <v>264</v>
       </c>
@@ -10583,7 +10589,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="19" t="s">
         <v>72</v>
       </c>
@@ -10615,7 +10621,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="107" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="17" t="s">
         <v>266</v>
       </c>
@@ -10647,7 +10653,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="19" t="s">
         <v>267</v>
       </c>
@@ -10679,7 +10685,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="109" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="19" t="s">
         <v>268</v>
       </c>
@@ -10711,7 +10717,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="110" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="19" t="s">
         <v>269</v>
       </c>
@@ -10743,7 +10749,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="111" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="19" t="s">
         <v>270</v>
       </c>
@@ -10775,7 +10781,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="112" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="19" t="s">
         <v>271</v>
       </c>
@@ -10807,7 +10813,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="113" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="19" t="s">
         <v>272</v>
       </c>
@@ -10839,7 +10845,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="114" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="19" t="s">
         <v>273</v>
       </c>
@@ -10871,7 +10877,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="115" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="19" t="s">
         <v>274</v>
       </c>
@@ -10903,7 +10909,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="116" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="19" t="s">
         <v>275</v>
       </c>
@@ -10935,7 +10941,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="117" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="19" t="s">
         <v>276</v>
       </c>
@@ -10967,7 +10973,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="118" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="19" t="s">
         <v>277</v>
       </c>
@@ -10999,7 +11005,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="119" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="19" t="s">
         <v>72</v>
       </c>
@@ -11031,7 +11037,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="120" spans="2:11" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:11" ht="44.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="17" t="s">
         <v>278</v>
       </c>
@@ -11063,7 +11069,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="121" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="19" t="s">
         <v>279</v>
       </c>
@@ -11095,7 +11101,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="122" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="20" t="s">
         <v>280</v>
       </c>
@@ -11127,7 +11133,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="20" t="s">
         <v>281</v>
       </c>
@@ -11159,7 +11165,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="124" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="20" t="s">
         <v>282</v>
       </c>
@@ -11191,7 +11197,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="125" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="20" t="s">
         <v>283</v>
       </c>
@@ -11223,7 +11229,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="126" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="20" t="s">
         <v>284</v>
       </c>
@@ -11255,7 +11261,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="20" t="s">
         <v>285</v>
       </c>
@@ -11287,7 +11293,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="20" t="s">
         <v>286</v>
       </c>
@@ -11319,7 +11325,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="129" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="20" t="s">
         <v>287</v>
       </c>
@@ -11351,7 +11357,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="130" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="20" t="s">
         <v>288</v>
       </c>
@@ -11383,7 +11389,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="131" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="20" t="s">
         <v>289</v>
       </c>
@@ -11415,7 +11421,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="132" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="20" t="s">
         <v>290</v>
       </c>
@@ -11447,7 +11453,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="133" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="20" t="s">
         <v>291</v>
       </c>
@@ -11479,7 +11485,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="134" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="20" t="s">
         <v>292</v>
       </c>
@@ -11511,7 +11517,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="135" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="20" t="s">
         <v>72</v>
       </c>
@@ -11543,7 +11549,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="136" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="19" t="s">
         <v>293</v>
       </c>
@@ -11575,7 +11581,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="137" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="25" t="s">
         <v>294</v>
       </c>
@@ -11607,7 +11613,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="138" spans="2:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="45" t="s">
         <v>295</v>
       </c>
@@ -11639,7 +11645,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="139" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="47" t="s">
         <v>296</v>
       </c>
@@ -11671,7 +11677,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="140" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="47" t="s">
         <v>297</v>
       </c>
@@ -11703,7 +11709,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="141" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="47" t="s">
         <v>298</v>
       </c>
@@ -11735,7 +11741,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="142" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="47" t="s">
         <v>299</v>
       </c>
@@ -11767,7 +11773,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="143" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="47" t="s">
         <v>300</v>
       </c>
@@ -11799,7 +11805,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="144" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="47" t="s">
         <v>94</v>
       </c>
@@ -11831,7 +11837,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="145" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="47" t="s">
         <v>72</v>
       </c>
@@ -11863,7 +11869,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="146" spans="2:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="17" t="s">
         <v>301</v>
       </c>
@@ -11895,7 +11901,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="147" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="19" t="s">
         <v>296</v>
       </c>
@@ -11927,7 +11933,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="148" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="19" t="s">
         <v>297</v>
       </c>
@@ -11959,7 +11965,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="149" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="19" t="s">
         <v>298</v>
       </c>
@@ -11991,7 +11997,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="150" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="19" t="s">
         <v>299</v>
       </c>
@@ -12023,7 +12029,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="151" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="19" t="s">
         <v>94</v>
       </c>
@@ -12055,7 +12061,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="152" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B152" s="25" t="s">
         <v>72</v>
       </c>
@@ -12087,7 +12093,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="153" spans="2:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="27" t="s">
         <v>302</v>
       </c>
@@ -12119,7 +12125,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="154" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="30" t="s">
         <v>296</v>
       </c>
@@ -12151,7 +12157,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="155" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="30" t="s">
         <v>297</v>
       </c>
@@ -12183,7 +12189,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="156" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="30" t="s">
         <v>298</v>
       </c>
@@ -12215,7 +12221,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="157" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="30" t="s">
         <v>299</v>
       </c>
@@ -12247,7 +12253,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="158" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="30" t="s">
         <v>94</v>
       </c>
@@ -12279,7 +12285,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="159" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B159" s="33" t="s">
         <v>72</v>
       </c>
@@ -12311,7 +12317,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="160" spans="2:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="17" t="s">
         <v>303</v>
       </c>
@@ -12343,7 +12349,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="161" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="19" t="s">
         <v>159</v>
       </c>
@@ -12375,7 +12381,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="162" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="19" t="s">
         <v>304</v>
       </c>
@@ -12407,7 +12413,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="163" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="19" t="s">
         <v>305</v>
       </c>
@@ -12439,7 +12445,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="164" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="19" t="s">
         <v>306</v>
       </c>
@@ -12471,7 +12477,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="165" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="19" t="s">
         <v>307</v>
       </c>
@@ -12503,7 +12509,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="166" spans="2:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="19" t="s">
         <v>308</v>
       </c>
@@ -12535,7 +12541,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="167" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="17" t="s">
         <v>309</v>
       </c>
@@ -12567,7 +12573,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="168" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="19" t="s">
         <v>310</v>
       </c>
@@ -12599,7 +12605,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="169" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="19" t="s">
         <v>311</v>
       </c>
@@ -12631,7 +12637,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="170" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="19" t="s">
         <v>312</v>
       </c>
@@ -12663,7 +12669,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="171" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="36" t="s">
         <v>313</v>
       </c>
@@ -12695,7 +12701,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="172" spans="2:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="17" t="s">
         <v>160</v>
       </c>
@@ -12727,7 +12733,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="173" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="19" t="s">
         <v>314</v>
       </c>
@@ -12759,7 +12765,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="19" t="s">
         <v>162</v>
       </c>
@@ -12791,7 +12797,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="175" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="19" t="s">
         <v>315</v>
       </c>
@@ -12823,7 +12829,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="176" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="19" t="s">
         <v>299</v>
       </c>
@@ -12855,7 +12861,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="177" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="19" t="s">
         <v>165</v>
       </c>
@@ -12887,7 +12893,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="178" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="19" t="s">
         <v>316</v>
       </c>
@@ -12919,7 +12925,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="179" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="25" t="s">
         <v>72</v>
       </c>
@@ -12951,7 +12957,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="180" spans="2:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="45" t="s">
         <v>317</v>
       </c>
@@ -12983,7 +12989,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="181" spans="2:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="47" t="s">
         <v>318</v>
       </c>
@@ -13015,7 +13021,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="182" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="47" t="s">
         <v>314</v>
       </c>
@@ -13047,7 +13053,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="183" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="47" t="s">
         <v>319</v>
       </c>
@@ -13079,7 +13085,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="184" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="47" t="s">
         <v>300</v>
       </c>
@@ -13111,7 +13117,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="185" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="47" t="s">
         <v>320</v>
       </c>
@@ -13143,7 +13149,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="186" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="47" t="s">
         <v>321</v>
       </c>
@@ -13175,7 +13181,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="187" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="47" t="s">
         <v>322</v>
       </c>
@@ -13207,7 +13213,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="188" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="47" t="s">
         <v>72</v>
       </c>
@@ -13239,7 +13245,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="189" spans="2:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="17" t="s">
         <v>323</v>
       </c>
@@ -13271,7 +13277,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="190" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="19" t="s">
         <v>324</v>
       </c>
@@ -13303,7 +13309,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="191" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="19" t="s">
         <v>325</v>
       </c>
@@ -13335,7 +13341,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="192" spans="2:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="17" t="s">
         <v>326</v>
       </c>
@@ -13367,7 +13373,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="193" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="19" t="s">
         <v>327</v>
       </c>
@@ -13399,7 +13405,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="194" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="19" t="s">
         <v>328</v>
       </c>
@@ -13431,7 +13437,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="195" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="19" t="s">
         <v>329</v>
       </c>
@@ -13463,7 +13469,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="196" spans="2:11" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:11" ht="44.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="17" t="s">
         <v>330</v>
       </c>
@@ -13495,7 +13501,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="197" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="19" t="s">
         <v>324</v>
       </c>
@@ -13527,7 +13533,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="198" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="19" t="s">
         <v>325</v>
       </c>
@@ -13559,7 +13565,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="199" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="19" t="s">
         <v>331</v>
       </c>
@@ -13591,10 +13597,10 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="200" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B200" s="20"/>
     </row>
-    <row r="201" spans="2:11" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:11" ht="136.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="125" t="s">
         <v>332</v>
       </c>
@@ -13608,7 +13614,7 @@
       <c r="J201" s="126"/>
       <c r="K201" s="126"/>
     </row>
-    <row r="202" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B201:K201"/>
@@ -13632,20 +13638,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K190"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="9" width="7.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="28.7265625" customWidth="1"/>
+    <col min="2" max="9" width="7.7265625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="127" t="s">
         <v>357</v>
       </c>
@@ -13658,7 +13666,7 @@
       <c r="H2" s="128"/>
       <c r="I2" s="128"/>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" s="129" t="s">
         <v>157</v>
@@ -13671,7 +13679,7 @@
       <c r="H3" s="138"/>
       <c r="I3" s="138"/>
     </row>
-    <row r="4" spans="1:9" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
       <c r="B4" s="132" t="s">
         <v>158</v>
@@ -13688,7 +13696,7 @@
       <c r="H4" s="141"/>
       <c r="I4" s="141"/>
     </row>
-    <row r="5" spans="1:9" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="55"/>
       <c r="B5" s="139" t="s">
         <v>158</v>
@@ -13713,7 +13721,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="56" t="s">
         <v>167</v>
       </c>
@@ -13742,7 +13750,7 @@
         <v>22071</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>168</v>
       </c>
@@ -13771,7 +13779,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>170</v>
       </c>
@@ -13800,7 +13808,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>172</v>
       </c>
@@ -13829,7 +13837,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>173</v>
       </c>
@@ -13858,7 +13866,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>174</v>
       </c>
@@ -13887,7 +13895,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>175</v>
       </c>
@@ -13916,7 +13924,7 @@
         <v>3479</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>176</v>
       </c>
@@ -13945,7 +13953,7 @@
         <v>3919</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>177</v>
       </c>
@@ -13974,7 +13982,7 @@
         <v>4866</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>178</v>
       </c>
@@ -14003,7 +14011,7 @@
         <v>4612</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>179</v>
       </c>
@@ -14032,7 +14040,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>180</v>
       </c>
@@ -14061,7 +14069,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>181</v>
       </c>
@@ -14090,7 +14098,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
         <v>183</v>
       </c>
@@ -14119,7 +14127,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
         <v>184</v>
       </c>
@@ -14148,7 +14156,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
         <v>185</v>
       </c>
@@ -14177,7 +14185,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
         <v>186</v>
       </c>
@@ -14206,7 +14214,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
         <v>187</v>
       </c>
@@ -14235,7 +14243,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="19" t="s">
         <v>188</v>
       </c>
@@ -14265,7 +14273,7 @@
       </c>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22" t="s">
         <v>189</v>
       </c>
@@ -14294,7 +14302,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="22" t="s">
         <v>190</v>
       </c>
@@ -14323,7 +14331,7 @@
         <v>3824</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="19" t="s">
         <v>191</v>
       </c>
@@ -14352,7 +14360,7 @@
         <v>5034</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
         <v>192</v>
       </c>
@@ -14381,7 +14389,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="19" t="s">
         <v>193</v>
       </c>
@@ -14410,7 +14418,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
         <v>194</v>
       </c>
@@ -14439,7 +14447,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="19" t="s">
         <v>195</v>
       </c>
@@ -14468,7 +14476,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
         <v>196</v>
       </c>
@@ -14497,7 +14505,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>197</v>
       </c>
@@ -14526,7 +14534,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
         <v>198</v>
       </c>
@@ -14555,7 +14563,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>199</v>
       </c>
@@ -14584,7 +14592,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="19" t="s">
         <v>200</v>
       </c>
@@ -14613,7 +14621,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>201</v>
       </c>
@@ -14642,7 +14650,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="19" t="s">
         <v>202</v>
       </c>
@@ -14671,7 +14679,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="19" t="s">
         <v>203</v>
       </c>
@@ -14700,7 +14708,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
         <v>204</v>
       </c>
@@ -14729,7 +14737,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="19" t="s">
         <v>205</v>
       </c>
@@ -14758,7 +14766,7 @@
         <v>4374</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="19" t="s">
         <v>206</v>
       </c>
@@ -14787,7 +14795,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="19" t="s">
         <v>207</v>
       </c>
@@ -14816,7 +14824,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="19" t="s">
         <v>208</v>
       </c>
@@ -14845,7 +14853,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="19" t="s">
         <v>209</v>
       </c>
@@ -14874,7 +14882,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
         <v>210</v>
       </c>
@@ -14903,7 +14911,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="19" t="s">
         <v>211</v>
       </c>
@@ -14932,7 +14940,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="20" t="s">
         <v>212</v>
       </c>
@@ -14961,7 +14969,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="20" t="s">
         <v>213</v>
       </c>
@@ -14990,7 +14998,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="19" t="s">
         <v>214</v>
       </c>
@@ -15019,7 +15027,7 @@
         <v>5148</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="20" t="s">
         <v>215</v>
       </c>
@@ -15048,7 +15056,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="20" t="s">
         <v>216</v>
       </c>
@@ -15077,7 +15085,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="19" t="s">
         <v>217</v>
       </c>
@@ -15106,7 +15114,7 @@
         <v>7559</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="20" t="s">
         <v>218</v>
       </c>
@@ -15135,7 +15143,7 @@
         <v>4553</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="20" t="s">
         <v>219</v>
       </c>
@@ -15164,7 +15172,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="20" t="s">
         <v>220</v>
       </c>
@@ -15193,7 +15201,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="19" t="s">
         <v>221</v>
       </c>
@@ -15222,7 +15230,7 @@
         <v>4612</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="20" t="s">
         <v>222</v>
       </c>
@@ -15251,7 +15259,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="20" t="s">
         <v>223</v>
       </c>
@@ -15280,7 +15288,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="17" t="s">
         <v>224</v>
       </c>
@@ -15309,7 +15317,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="19" t="s">
         <v>225</v>
       </c>
@@ -15338,7 +15346,7 @@
         <v>9156</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="19" t="s">
         <v>226</v>
       </c>
@@ -15367,7 +15375,7 @@
         <v>6936</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="19" t="s">
         <v>227</v>
       </c>
@@ -15396,7 +15404,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="19" t="s">
         <v>228</v>
       </c>
@@ -15425,7 +15433,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="19" t="s">
         <v>229</v>
       </c>
@@ -15454,7 +15462,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="17" t="s">
         <v>230</v>
       </c>
@@ -15483,7 +15491,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="19" t="s">
         <v>231</v>
       </c>
@@ -15512,7 +15520,7 @@
         <v>6930</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="19" t="s">
         <v>232</v>
       </c>
@@ -15541,7 +15549,7 @@
         <v>3905</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="19" t="s">
         <v>233</v>
       </c>
@@ -15570,7 +15578,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="19" t="s">
         <v>234</v>
       </c>
@@ -15599,7 +15607,7 @@
         <v>5642</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="19" t="s">
         <v>235</v>
       </c>
@@ -15628,7 +15636,7 @@
         <v>3645</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="17" t="s">
         <v>236</v>
       </c>
@@ -15657,7 +15665,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="19" t="s">
         <v>237</v>
       </c>
@@ -15686,7 +15694,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="19" t="s">
         <v>238</v>
       </c>
@@ -15715,7 +15723,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="19" t="s">
         <v>239</v>
       </c>
@@ -15744,7 +15752,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="19" t="s">
         <v>240</v>
       </c>
@@ -15773,7 +15781,7 @@
         <v>3548</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="19" t="s">
         <v>241</v>
       </c>
@@ -15802,7 +15810,7 @@
         <v>4223</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="19" t="s">
         <v>242</v>
       </c>
@@ -15831,7 +15839,7 @@
         <v>4231</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="19" t="s">
         <v>243</v>
       </c>
@@ -15860,7 +15868,7 @@
         <v>6814</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="17" t="s">
         <v>244</v>
       </c>
@@ -15889,7 +15897,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="19" t="s">
         <v>245</v>
       </c>
@@ -15918,7 +15926,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="19" t="s">
         <v>246</v>
       </c>
@@ -15947,7 +15955,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="19" t="s">
         <v>247</v>
       </c>
@@ -15976,7 +15984,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="19" t="s">
         <v>248</v>
       </c>
@@ -16005,7 +16013,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="19" t="s">
         <v>249</v>
       </c>
@@ -16034,7 +16042,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="19" t="s">
         <v>250</v>
       </c>
@@ -16063,7 +16071,7 @@
         <v>6745</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="17" t="s">
         <v>251</v>
       </c>
@@ -16092,7 +16100,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="19" t="s">
         <v>252</v>
       </c>
@@ -16121,7 +16129,7 @@
         <v>17210</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="20" t="s">
         <v>253</v>
       </c>
@@ -16150,7 +16158,7 @@
         <v>6135</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="20" t="s">
         <v>254</v>
       </c>
@@ -16179,7 +16187,7 @@
         <v>7422</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="20" t="s">
         <v>255</v>
       </c>
@@ -16208,7 +16216,7 @@
         <v>3647</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="20" t="s">
         <v>256</v>
       </c>
@@ -16237,7 +16245,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="19" t="s">
         <v>257</v>
       </c>
@@ -16266,7 +16274,7 @@
         <v>4862</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="20" t="s">
         <v>258</v>
       </c>
@@ -16295,7 +16303,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="20" t="s">
         <v>259</v>
       </c>
@@ -16324,7 +16332,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="20" t="s">
         <v>260</v>
       </c>
@@ -16353,7 +16361,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="17" t="s">
         <v>261</v>
       </c>
@@ -16382,7 +16390,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="19" t="s">
         <v>262</v>
       </c>
@@ -16411,7 +16419,7 @@
         <v>17924</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="19" t="s">
         <v>263</v>
       </c>
@@ -16440,7 +16448,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="19" t="s">
         <v>264</v>
       </c>
@@ -16469,7 +16477,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="19" t="s">
         <v>72</v>
       </c>
@@ -16498,7 +16506,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="17" t="s">
         <v>265</v>
       </c>
@@ -16527,7 +16535,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="19" t="s">
         <v>262</v>
       </c>
@@ -16556,7 +16564,7 @@
         <v>18671</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="19" t="s">
         <v>263</v>
       </c>
@@ -16585,7 +16593,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="19" t="s">
         <v>264</v>
       </c>
@@ -16614,7 +16622,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="19" t="s">
         <v>72</v>
       </c>
@@ -16643,7 +16651,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="17" t="s">
         <v>266</v>
       </c>
@@ -16672,7 +16680,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="19" t="s">
         <v>267</v>
       </c>
@@ -16701,7 +16709,7 @@
         <v>11924</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="19" t="s">
         <v>268</v>
       </c>
@@ -16730,7 +16738,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="19" t="s">
         <v>269</v>
       </c>
@@ -16759,7 +16767,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="19" t="s">
         <v>270</v>
       </c>
@@ -16788,7 +16796,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="19" t="s">
         <v>271</v>
       </c>
@@ -16817,7 +16825,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="19" t="s">
         <v>272</v>
       </c>
@@ -16846,7 +16854,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="19" t="s">
         <v>273</v>
       </c>
@@ -16875,7 +16883,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="19" t="s">
         <v>274</v>
       </c>
@@ -16904,7 +16912,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="19" t="s">
         <v>275</v>
       </c>
@@ -16933,7 +16941,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="19" t="s">
         <v>276</v>
       </c>
@@ -16962,7 +16970,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="19" t="s">
         <v>277</v>
       </c>
@@ -16991,7 +16999,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="19" t="s">
         <v>72</v>
       </c>
@@ -17020,7 +17028,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="44.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="17" t="s">
         <v>278</v>
       </c>
@@ -17049,7 +17057,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="19" t="s">
         <v>279</v>
       </c>
@@ -17078,7 +17086,7 @@
         <v>13577</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="20" t="s">
         <v>280</v>
       </c>
@@ -17107,7 +17115,7 @@
         <v>4711</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="20" t="s">
         <v>281</v>
       </c>
@@ -17136,7 +17144,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="20" t="s">
         <v>282</v>
       </c>
@@ -17165,7 +17173,7 @@
         <v>7492</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="20" t="s">
         <v>283</v>
       </c>
@@ -17194,7 +17202,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="20" t="s">
         <v>284</v>
       </c>
@@ -17223,7 +17231,7 @@
         <v>8549</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="20" t="s">
         <v>285</v>
       </c>
@@ -17252,7 +17260,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="20" t="s">
         <v>286</v>
       </c>
@@ -17281,7 +17289,7 @@
         <v>9614</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="20" t="s">
         <v>287</v>
       </c>
@@ -17310,7 +17318,7 @@
         <v>9803</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="20" t="s">
         <v>288</v>
       </c>
@@ -17339,7 +17347,7 @@
         <v>6345</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="20" t="s">
         <v>289</v>
       </c>
@@ -17368,7 +17376,7 @@
         <v>5653</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="20" t="s">
         <v>290</v>
       </c>
@@ -17397,7 +17405,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="20" t="s">
         <v>291</v>
       </c>
@@ -17426,7 +17434,7 @@
         <v>7226</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="20" t="s">
         <v>292</v>
       </c>
@@ -17455,7 +17463,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="20" t="s">
         <v>72</v>
       </c>
@@ -17484,7 +17492,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="19" t="s">
         <v>293</v>
       </c>
@@ -17513,7 +17521,7 @@
         <v>6748</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="19" t="s">
         <v>294</v>
       </c>
@@ -17542,7 +17550,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="17" t="s">
         <v>295</v>
       </c>
@@ -17571,7 +17579,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="19" t="s">
         <v>296</v>
       </c>
@@ -17600,7 +17608,7 @@
         <v>22071</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="19" t="s">
         <v>297</v>
       </c>
@@ -17629,7 +17637,7 @@
         <v>17539</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="19" t="s">
         <v>298</v>
       </c>
@@ -17658,7 +17666,7 @@
         <v>8933</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="19" t="s">
         <v>299</v>
       </c>
@@ -17687,7 +17695,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="19" t="s">
         <v>300</v>
       </c>
@@ -17716,7 +17724,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="19" t="s">
         <v>94</v>
       </c>
@@ -17745,7 +17753,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="19" t="s">
         <v>72</v>
       </c>
@@ -17774,7 +17782,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="17" t="s">
         <v>303</v>
       </c>
@@ -17803,7 +17811,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="19" t="s">
         <v>159</v>
       </c>
@@ -17832,7 +17840,7 @@
         <v>21503</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="19" t="s">
         <v>304</v>
       </c>
@@ -17861,7 +17869,7 @@
         <v>21869</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="19" t="s">
         <v>305</v>
       </c>
@@ -17890,7 +17898,7 @@
         <v>21894</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="19" t="s">
         <v>306</v>
       </c>
@@ -17919,7 +17927,7 @@
         <v>15043</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="19" t="s">
         <v>307</v>
       </c>
@@ -17948,7 +17956,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="19" t="s">
         <v>308</v>
       </c>
@@ -17977,7 +17985,7 @@
         <v>11434</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="17" t="s">
         <v>366</v>
       </c>
@@ -18006,7 +18014,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="19" t="s">
         <v>367</v>
       </c>
@@ -18035,7 +18043,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="19" t="s">
         <v>311</v>
       </c>
@@ -18064,7 +18072,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="19" t="s">
         <v>312</v>
       </c>
@@ -18093,7 +18101,7 @@
         <v>11847</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="36" t="s">
         <v>313</v>
       </c>
@@ -18122,7 +18130,7 @@
         <v>8278</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="36" t="s">
         <v>368</v>
       </c>
@@ -18151,7 +18159,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="17" t="s">
         <v>369</v>
       </c>
@@ -18180,7 +18188,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="19" t="s">
         <v>367</v>
       </c>
@@ -18209,7 +18217,7 @@
         <v>3038</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="19" t="s">
         <v>311</v>
       </c>
@@ -18238,7 +18246,7 @@
         <v>15404</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="19" t="s">
         <v>370</v>
       </c>
@@ -18267,7 +18275,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="36" t="s">
         <v>371</v>
       </c>
@@ -18296,7 +18304,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="36" t="s">
         <v>372</v>
       </c>
@@ -18325,7 +18333,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="17" t="s">
         <v>373</v>
       </c>
@@ -18354,7 +18362,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="19" t="s">
         <v>374</v>
       </c>
@@ -18383,7 +18391,7 @@
         <v>15118</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="19" t="s">
         <v>375</v>
       </c>
@@ -18412,7 +18420,7 @@
         <v>21386</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="19" t="s">
         <v>376</v>
       </c>
@@ -18441,7 +18449,7 @@
         <v>19584</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="19" t="s">
         <v>377</v>
       </c>
@@ -18470,7 +18478,7 @@
         <v>10729</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="19" t="s">
         <v>364</v>
       </c>
@@ -18499,7 +18507,7 @@
         <v>13934</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="19" t="s">
         <v>365</v>
       </c>
@@ -18528,7 +18536,7 @@
         <v>22071</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="19" t="s">
         <v>72</v>
       </c>
@@ -18557,7 +18565,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="44.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="17" t="s">
         <v>378</v>
       </c>
@@ -18586,7 +18594,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="19" t="s">
         <v>379</v>
       </c>
@@ -18615,7 +18623,7 @@
         <v>17864</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="19" t="s">
         <v>380</v>
       </c>
@@ -18644,7 +18652,7 @@
         <v>14758</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="19" t="s">
         <v>381</v>
       </c>
@@ -18673,7 +18681,7 @@
         <v>6873</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="19" t="s">
         <v>382</v>
       </c>
@@ -18702,7 +18710,7 @@
         <v>10694</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="19" t="s">
         <v>383</v>
       </c>
@@ -18731,7 +18739,7 @@
         <v>8409</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="19" t="s">
         <v>384</v>
       </c>
@@ -18760,7 +18768,7 @@
         <v>12888</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="19" t="s">
         <v>385</v>
       </c>
@@ -18789,7 +18797,7 @@
         <v>15662</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="19" t="s">
         <v>386</v>
       </c>
@@ -18818,7 +18826,7 @@
         <v>7984</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="19" t="s">
         <v>387</v>
       </c>
@@ -18847,7 +18855,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="19" t="s">
         <v>388</v>
       </c>
@@ -18876,7 +18884,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="19" t="s">
         <v>389</v>
       </c>
@@ -18905,7 +18913,7 @@
         <v>6766</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="44.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="17" t="s">
         <v>330</v>
       </c>
@@ -18934,7 +18942,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="19" t="s">
         <v>324</v>
       </c>
@@ -18963,7 +18971,7 @@
         <v>17671</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="19" t="s">
         <v>325</v>
       </c>
@@ -18992,7 +19000,7 @@
         <v>17939</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="19" t="s">
         <v>331</v>
       </c>
@@ -19021,10 +19029,10 @@
         <v>20668</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="20"/>
     </row>
-    <row r="190" spans="1:9" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="140.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="125" t="s">
         <v>332</v>
       </c>
@@ -19065,18 +19073,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="11" width="7.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="28.7265625" customWidth="1"/>
+    <col min="2" max="11" width="7.7265625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="127" t="s">
         <v>340</v>
       </c>
@@ -19091,7 +19099,7 @@
       <c r="J2" s="128"/>
       <c r="K2" s="128"/>
     </row>
-    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="142" t="s">
         <v>341</v>
@@ -19108,7 +19116,7 @@
       <c r="J3" s="143"/>
       <c r="K3" s="143"/>
     </row>
-    <row r="4" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
       <c r="B4" s="145" t="s">
         <v>158</v>
@@ -19133,7 +19141,7 @@
       <c r="J4" s="147"/>
       <c r="K4" s="147"/>
     </row>
-    <row r="5" spans="1:11" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="12"/>
       <c r="B5" s="133" t="s">
         <v>158</v>
@@ -19162,7 +19170,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>167</v>
       </c>
@@ -19197,7 +19205,7 @@
         <v>18793</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>168</v>
       </c>
@@ -19232,7 +19240,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>170</v>
       </c>
@@ -19267,7 +19275,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>172</v>
       </c>
@@ -19302,7 +19310,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>173</v>
       </c>
@@ -19337,7 +19345,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>174</v>
       </c>
@@ -19372,7 +19380,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>175</v>
       </c>
@@ -19407,7 +19415,7 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>176</v>
       </c>
@@ -19442,7 +19450,7 @@
         <v>3937</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>177</v>
       </c>
@@ -19477,7 +19485,7 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>178</v>
       </c>
@@ -19512,7 +19520,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>179</v>
       </c>
@@ -19547,7 +19555,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>180</v>
       </c>
@@ -19582,7 +19590,7 @@
         <v>3057</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>181</v>
       </c>
@@ -19617,7 +19625,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
         <v>183</v>
       </c>
@@ -19652,7 +19660,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
         <v>184</v>
       </c>
@@ -19687,7 +19695,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
         <v>185</v>
       </c>
@@ -19722,7 +19730,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
         <v>186</v>
       </c>
@@ -19757,7 +19765,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
         <v>187</v>
       </c>
@@ -19792,7 +19800,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="19" t="s">
         <v>188</v>
       </c>
@@ -19828,7 +19836,7 @@
       </c>
       <c r="N24" s="21"/>
     </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22" t="s">
         <v>189</v>
       </c>
@@ -19863,7 +19871,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="22" t="s">
         <v>190</v>
       </c>
@@ -19898,7 +19906,7 @@
         <v>3638</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="19" t="s">
         <v>191</v>
       </c>
@@ -19933,7 +19941,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
         <v>192</v>
       </c>
@@ -19968,7 +19976,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="19" t="s">
         <v>193</v>
       </c>
@@ -20003,7 +20011,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
         <v>194</v>
       </c>
@@ -20038,7 +20046,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="19" t="s">
         <v>195</v>
       </c>
@@ -20073,7 +20081,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
         <v>196</v>
       </c>
@@ -20108,7 +20116,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>197</v>
       </c>
@@ -20143,7 +20151,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
         <v>198</v>
       </c>
@@ -20178,7 +20186,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>199</v>
       </c>
@@ -20213,7 +20221,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="19" t="s">
         <v>200</v>
       </c>
@@ -20248,7 +20256,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>201</v>
       </c>
@@ -20283,7 +20291,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="19" t="s">
         <v>202</v>
       </c>
@@ -20318,7 +20326,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="19" t="s">
         <v>203</v>
       </c>
@@ -20353,7 +20361,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
         <v>204</v>
       </c>
@@ -20388,7 +20396,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="19" t="s">
         <v>205</v>
       </c>
@@ -20423,7 +20431,7 @@
         <v>3605</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="19" t="s">
         <v>206</v>
       </c>
@@ -20458,7 +20466,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="19" t="s">
         <v>207</v>
       </c>
@@ -20493,7 +20501,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="19" t="s">
         <v>208</v>
       </c>
@@ -20528,7 +20536,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="19" t="s">
         <v>209</v>
       </c>
@@ -20563,7 +20571,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
         <v>210</v>
       </c>
@@ -20598,7 +20606,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="19" t="s">
         <v>211</v>
       </c>
@@ -20633,7 +20641,7 @@
         <v>3122</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="20" t="s">
         <v>212</v>
       </c>
@@ -20668,7 +20676,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="20" t="s">
         <v>213</v>
       </c>
@@ -20703,7 +20711,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="19" t="s">
         <v>214</v>
       </c>
@@ -20738,7 +20746,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="20" t="s">
         <v>215</v>
       </c>
@@ -20773,7 +20781,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="20" t="s">
         <v>216</v>
       </c>
@@ -20808,7 +20816,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="19" t="s">
         <v>217</v>
       </c>
@@ -20843,7 +20851,7 @@
         <v>7863</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="20" t="s">
         <v>218</v>
       </c>
@@ -20878,7 +20886,7 @@
         <v>4226</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="20" t="s">
         <v>219</v>
       </c>
@@ -20913,7 +20921,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="20" t="s">
         <v>220</v>
       </c>
@@ -20948,7 +20956,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="19" t="s">
         <v>221</v>
       </c>
@@ -20983,7 +20991,7 @@
         <v>3866</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="20" t="s">
         <v>222</v>
       </c>
@@ -21018,7 +21026,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="20" t="s">
         <v>223</v>
       </c>
@@ -21053,7 +21061,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="17" t="s">
         <v>224</v>
       </c>
@@ -21088,7 +21096,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="19" t="s">
         <v>225</v>
       </c>
@@ -21123,7 +21131,7 @@
         <v>6489</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="19" t="s">
         <v>226</v>
       </c>
@@ -21158,7 +21166,7 @@
         <v>6922</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="19" t="s">
         <v>227</v>
       </c>
@@ -21193,7 +21201,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="19" t="s">
         <v>228</v>
       </c>
@@ -21228,7 +21236,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="19" t="s">
         <v>229</v>
       </c>
@@ -21263,7 +21271,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="17" t="s">
         <v>230</v>
       </c>
@@ -21298,7 +21306,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="19" t="s">
         <v>231</v>
       </c>
@@ -21333,7 +21341,7 @@
         <v>7321</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="19" t="s">
         <v>232</v>
       </c>
@@ -21368,7 +21376,7 @@
         <v>4194</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="19" t="s">
         <v>233</v>
       </c>
@@ -21403,7 +21411,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="19" t="s">
         <v>234</v>
       </c>
@@ -21438,7 +21446,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="19" t="s">
         <v>235</v>
       </c>
@@ -21473,7 +21481,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="17" t="s">
         <v>236</v>
       </c>
@@ -21508,7 +21516,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="19" t="s">
         <v>237</v>
       </c>
@@ -21543,7 +21551,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="19" t="s">
         <v>238</v>
       </c>
@@ -21578,7 +21586,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="19" t="s">
         <v>239</v>
       </c>
@@ -21613,7 +21621,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="19" t="s">
         <v>240</v>
       </c>
@@ -21648,7 +21656,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="19" t="s">
         <v>241</v>
       </c>
@@ -21683,7 +21691,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="19" t="s">
         <v>242</v>
       </c>
@@ -21718,7 +21726,7 @@
         <v>3404</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="19" t="s">
         <v>243</v>
       </c>
@@ -21753,7 +21761,7 @@
         <v>4689</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="17" t="s">
         <v>244</v>
       </c>
@@ -21788,7 +21796,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="19" t="s">
         <v>245</v>
       </c>
@@ -21823,7 +21831,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="19" t="s">
         <v>246</v>
       </c>
@@ -21858,7 +21866,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="19" t="s">
         <v>247</v>
       </c>
@@ -21893,7 +21901,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="19" t="s">
         <v>248</v>
       </c>
@@ -21928,7 +21936,7 @@
         <v>5082</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="19" t="s">
         <v>249</v>
       </c>
@@ -21963,7 +21971,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="19" t="s">
         <v>250</v>
       </c>
@@ -21998,7 +22006,7 @@
         <v>4420</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="17" t="s">
         <v>251</v>
       </c>
@@ -22033,7 +22041,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="19" t="s">
         <v>252</v>
       </c>
@@ -22068,7 +22076,7 @@
         <v>13717</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="20" t="s">
         <v>253</v>
       </c>
@@ -22103,7 +22111,7 @@
         <v>4626</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="20" t="s">
         <v>254</v>
       </c>
@@ -22138,7 +22146,7 @@
         <v>6347</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="20" t="s">
         <v>255</v>
       </c>
@@ -22173,7 +22181,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="20" t="s">
         <v>256</v>
       </c>
@@ -22208,7 +22216,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="19" t="s">
         <v>257</v>
       </c>
@@ -22243,7 +22251,7 @@
         <v>5076</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="20" t="s">
         <v>258</v>
       </c>
@@ -22278,7 +22286,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="20" t="s">
         <v>259</v>
       </c>
@@ -22313,7 +22321,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="20" t="s">
         <v>260</v>
       </c>
@@ -22348,7 +22356,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="17" t="s">
         <v>261</v>
       </c>
@@ -22383,7 +22391,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="19" t="s">
         <v>262</v>
       </c>
@@ -22418,7 +22426,7 @@
         <v>14852</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="19" t="s">
         <v>263</v>
       </c>
@@ -22453,7 +22461,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="19" t="s">
         <v>264</v>
       </c>
@@ -22488,7 +22496,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="19" t="s">
         <v>72</v>
       </c>
@@ -22523,7 +22531,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="17" t="s">
         <v>265</v>
       </c>
@@ -22558,7 +22566,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="19" t="s">
         <v>262</v>
       </c>
@@ -22593,7 +22601,7 @@
         <v>15507</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="19" t="s">
         <v>263</v>
       </c>
@@ -22628,7 +22636,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="19" t="s">
         <v>264</v>
       </c>
@@ -22663,7 +22671,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="19" t="s">
         <v>72</v>
       </c>
@@ -22698,7 +22706,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="17" t="s">
         <v>266</v>
       </c>
@@ -22733,7 +22741,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="19" t="s">
         <v>267</v>
       </c>
@@ -22768,7 +22776,7 @@
         <v>10705</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="19" t="s">
         <v>268</v>
       </c>
@@ -22803,7 +22811,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="19" t="s">
         <v>269</v>
       </c>
@@ -22838,7 +22846,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="19" t="s">
         <v>270</v>
       </c>
@@ -22873,7 +22881,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="19" t="s">
         <v>271</v>
       </c>
@@ -22908,7 +22916,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="19" t="s">
         <v>272</v>
       </c>
@@ -22943,7 +22951,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="19" t="s">
         <v>273</v>
       </c>
@@ -22978,7 +22986,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="19" t="s">
         <v>274</v>
       </c>
@@ -23013,7 +23021,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="19" t="s">
         <v>275</v>
       </c>
@@ -23048,7 +23056,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="19" t="s">
         <v>276</v>
       </c>
@@ -23083,7 +23091,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="19" t="s">
         <v>277</v>
       </c>
@@ -23118,7 +23126,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="19" t="s">
         <v>72</v>
       </c>
@@ -23153,7 +23161,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="44.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="17" t="s">
         <v>278</v>
       </c>
@@ -23188,7 +23196,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="19" t="s">
         <v>279</v>
       </c>
@@ -23223,7 +23231,7 @@
         <v>11668</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="20" t="s">
         <v>280</v>
       </c>
@@ -23258,7 +23266,7 @@
         <v>3994</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="20" t="s">
         <v>281</v>
       </c>
@@ -23293,7 +23301,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="20" t="s">
         <v>282</v>
       </c>
@@ -23328,7 +23336,7 @@
         <v>6095</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="20" t="s">
         <v>283</v>
       </c>
@@ -23363,7 +23371,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="20" t="s">
         <v>284</v>
       </c>
@@ -23398,7 +23406,7 @@
         <v>6911</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="20" t="s">
         <v>285</v>
       </c>
@@ -23433,7 +23441,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="20" t="s">
         <v>286</v>
       </c>
@@ -23468,7 +23476,7 @@
         <v>8253</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="20" t="s">
         <v>287</v>
       </c>
@@ -23503,7 +23511,7 @@
         <v>8076</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="20" t="s">
         <v>288</v>
       </c>
@@ -23538,7 +23546,7 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="20" t="s">
         <v>289</v>
       </c>
@@ -23573,7 +23581,7 @@
         <v>4452</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="20" t="s">
         <v>290</v>
       </c>
@@ -23608,7 +23616,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="20" t="s">
         <v>291</v>
       </c>
@@ -23643,7 +23651,7 @@
         <v>5281</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="20" t="s">
         <v>292</v>
       </c>
@@ -23678,7 +23686,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="20" t="s">
         <v>72</v>
       </c>
@@ -23713,7 +23721,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="19" t="s">
         <v>293</v>
       </c>
@@ -23748,7 +23756,7 @@
         <v>6073</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="19" t="s">
         <v>294</v>
       </c>
@@ -23783,7 +23791,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="17" t="s">
         <v>295</v>
       </c>
@@ -23818,7 +23826,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="19" t="s">
         <v>296</v>
       </c>
@@ -23853,7 +23861,7 @@
         <v>18793</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="19" t="s">
         <v>297</v>
       </c>
@@ -23888,7 +23896,7 @@
         <v>14803</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="19" t="s">
         <v>298</v>
       </c>
@@ -23923,7 +23931,7 @@
         <v>6219</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="19" t="s">
         <v>299</v>
       </c>
@@ -23958,7 +23966,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="19" t="s">
         <v>300</v>
       </c>
@@ -23993,7 +24001,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="19" t="s">
         <v>94</v>
       </c>
@@ -24028,7 +24036,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="25" t="s">
         <v>72</v>
       </c>
@@ -24063,7 +24071,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="27" t="s">
         <v>347</v>
       </c>
@@ -24096,7 +24104,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="30" t="s">
         <v>296</v>
       </c>
@@ -24131,7 +24139,7 @@
         <v>11957</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="30" t="s">
         <v>297</v>
       </c>
@@ -24166,7 +24174,7 @@
         <v>10629</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="30" t="s">
         <v>298</v>
       </c>
@@ -24201,7 +24209,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="30" t="s">
         <v>299</v>
       </c>
@@ -24236,7 +24244,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="33" t="s">
         <v>94</v>
       </c>
@@ -24271,7 +24279,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="17" t="s">
         <v>303</v>
       </c>
@@ -24306,7 +24314,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="19" t="s">
         <v>159</v>
       </c>
@@ -24341,7 +24349,7 @@
         <v>18523</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="19" t="s">
         <v>304</v>
       </c>
@@ -24376,7 +24384,7 @@
         <v>18662</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="19" t="s">
         <v>305</v>
       </c>
@@ -24411,7 +24419,7 @@
         <v>18793</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="19" t="s">
         <v>306</v>
       </c>
@@ -24446,7 +24454,7 @@
         <v>12679</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="19" t="s">
         <v>307</v>
       </c>
@@ -24481,7 +24489,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="19" t="s">
         <v>308</v>
       </c>
@@ -24516,7 +24524,7 @@
         <v>8378</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="44.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="17" t="s">
         <v>348</v>
       </c>
@@ -24551,7 +24559,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="19" t="s">
         <v>349</v>
       </c>
@@ -24586,7 +24594,7 @@
         <v>4608</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="19" t="s">
         <v>350</v>
       </c>
@@ -24621,7 +24629,7 @@
         <v>5147</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="19" t="s">
         <v>351</v>
       </c>
@@ -24656,7 +24664,7 @@
         <v>5587</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="19" t="s">
         <v>352</v>
       </c>
@@ -24691,7 +24699,7 @@
         <v>5901</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="19" t="s">
         <v>353</v>
       </c>
@@ -24726,10 +24734,10 @@
         <v>4213</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="20"/>
     </row>
-    <row r="166" spans="1:11" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="153" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="125" t="s">
         <v>354</v>
       </c>
@@ -24773,21 +24781,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="77.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -24795,7 +24803,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -24803,7 +24811,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="114" t="s">
         <v>456</v>
       </c>
@@ -24811,7 +24819,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="116" t="s">
         <v>457</v>
       </c>
@@ -24819,7 +24827,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -24827,7 +24835,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -24835,7 +24843,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -24843,7 +24851,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -24851,7 +24859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -24859,7 +24867,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -24867,7 +24875,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -24875,7 +24883,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="114" t="s">
         <v>458</v>
       </c>
@@ -24883,7 +24891,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="116" t="s">
         <v>459</v>
       </c>
@@ -24891,7 +24899,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -24899,7 +24907,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="114" t="s">
         <v>462</v>
       </c>
@@ -24907,7 +24915,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="116" t="s">
         <v>463</v>
       </c>
@@ -24915,7 +24923,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="114" t="s">
         <v>466</v>
       </c>
@@ -24923,7 +24931,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="116" t="s">
         <v>467</v>
       </c>
@@ -24931,7 +24939,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -24939,7 +24947,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -24947,7 +24955,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -24955,7 +24963,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -24963,7 +24971,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -24971,7 +24979,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -24979,7 +24987,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -24988,7 +24996,7 @@
       </c>
       <c r="C25" s="98"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="114" t="s">
         <v>471</v>
       </c>
@@ -24996,7 +25004,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="118" t="s">
         <v>472</v>
       </c>
@@ -25004,7 +25012,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="116" t="s">
         <v>473</v>
       </c>
@@ -25012,7 +25020,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -25021,7 +25029,7 @@
       </c>
       <c r="C29" s="98"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -25029,7 +25037,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -25037,7 +25045,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -25045,7 +25053,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -25053,7 +25061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -25061,7 +25069,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -25069,7 +25077,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -25077,7 +25085,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -25085,7 +25093,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -25093,7 +25101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -25101,7 +25109,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -25109,7 +25117,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -25117,7 +25125,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -25125,7 +25133,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -25144,12 +25152,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>324</v>
       </c>
@@ -25169,7 +25177,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -25198,7 +25206,7 @@
         <v>ISIC 27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>438</v>
       </c>
@@ -25240,18 +25248,18 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="60" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="60" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
     <col min="5" max="5" width="16" style="60" customWidth="1"/>
     <col min="6" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="121" t="s">
         <v>394</v>
       </c>
@@ -25264,11 +25272,11 @@
       <c r="H1" s="121"/>
       <c r="I1" s="59"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H2" s="54"/>
       <c r="I2" s="59"/>
     </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="108" t="s">
         <v>395</v>
@@ -25292,7 +25300,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="77" t="s">
         <v>87</v>
       </c>
@@ -25317,7 +25325,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -25343,7 +25351,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -25369,7 +25377,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -25392,7 +25400,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -25418,7 +25426,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -25441,7 +25449,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -25464,7 +25472,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -25487,7 +25495,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -25510,7 +25518,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -25533,7 +25541,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="77" t="s">
         <v>119</v>
       </c>
@@ -25558,7 +25566,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -25584,7 +25592,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -25607,7 +25615,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -25630,7 +25638,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>119</v>
       </c>
@@ -25656,7 +25664,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -25682,7 +25690,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="77" t="s">
         <v>126</v>
       </c>
@@ -25704,7 +25712,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="63" t="s">
         <v>126</v>
       </c>
@@ -25730,7 +25738,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>126</v>
       </c>
@@ -25756,7 +25764,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -25779,7 +25787,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>126</v>
       </c>
@@ -25802,7 +25810,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>126</v>
       </c>
@@ -25825,7 +25833,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="77" t="s">
         <v>397</v>
       </c>
@@ -25847,7 +25855,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>397</v>
       </c>
@@ -25870,7 +25878,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="63" t="s">
         <v>397</v>
       </c>
@@ -25896,7 +25904,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>397</v>
       </c>
@@ -25922,7 +25930,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>397</v>
       </c>
@@ -25945,7 +25953,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="77" t="s">
         <v>399</v>
       </c>
@@ -25967,7 +25975,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>399</v>
       </c>
@@ -25993,7 +26001,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="63" t="s">
         <v>399</v>
       </c>
@@ -26019,7 +26027,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="77" t="s">
         <v>398</v>
       </c>
@@ -26037,7 +26045,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="59"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>393</v>
       </c>
@@ -26051,7 +26059,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>393</v>
       </c>
@@ -26065,7 +26073,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>393</v>
       </c>
@@ -26079,7 +26087,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="63" t="s">
         <v>393</v>
       </c>
@@ -26093,7 +26101,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="77" t="s">
         <v>331</v>
       </c>
@@ -26117,7 +26125,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="43"/>
       <c r="B40" s="42"/>
       <c r="C40" s="99"/>
@@ -26127,7 +26135,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="59"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="77" t="s">
         <v>435</v>
       </c>
@@ -26143,7 +26151,7 @@
         <v>0.24578089662143476</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="121" t="s">
         <v>406</v>
       </c>
@@ -26155,7 +26163,7 @@
       <c r="G43" s="121"/>
       <c r="H43" s="121"/>
     </row>
-    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="74" t="s">
@@ -26177,7 +26185,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="77" t="s">
         <v>408</v>
       </c>
@@ -26199,7 +26207,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="72" t="s">
         <v>296</v>
       </c>
@@ -26224,7 +26232,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="44" t="s">
         <v>296</v>
       </c>
@@ -26238,7 +26246,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="44" t="s">
         <v>296</v>
       </c>
@@ -26256,7 +26264,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="44" t="s">
         <v>296</v>
       </c>
@@ -26270,7 +26278,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="44" t="s">
         <v>296</v>
       </c>
@@ -26284,7 +26292,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="44" t="s">
         <v>296</v>
       </c>
@@ -26302,7 +26310,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="44" t="s">
         <v>296</v>
       </c>
@@ -26316,7 +26324,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="44" t="s">
         <v>296</v>
       </c>
@@ -26330,7 +26338,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="72" t="s">
         <v>297</v>
       </c>
@@ -26355,7 +26363,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="44" t="s">
         <v>297</v>
       </c>
@@ -26369,7 +26377,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="44" t="s">
         <v>297</v>
       </c>
@@ -26387,7 +26395,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="44" t="s">
         <v>297</v>
       </c>
@@ -26401,7 +26409,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="44" t="s">
         <v>297</v>
       </c>
@@ -26415,7 +26423,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="44" t="s">
         <v>297</v>
       </c>
@@ -26433,7 +26441,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="44" t="s">
         <v>297</v>
       </c>
@@ -26447,7 +26455,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="44" t="s">
         <v>297</v>
       </c>
@@ -26461,7 +26469,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="72" t="s">
         <v>298</v>
       </c>
@@ -26486,7 +26494,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="44" t="s">
         <v>298</v>
       </c>
@@ -26500,7 +26508,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="44" t="s">
         <v>298</v>
       </c>
@@ -26518,7 +26526,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="44" t="s">
         <v>298</v>
       </c>
@@ -26532,7 +26540,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="44" t="s">
         <v>298</v>
       </c>
@@ -26546,7 +26554,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="44" t="s">
         <v>298</v>
       </c>
@@ -26564,7 +26572,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="44" t="s">
         <v>298</v>
       </c>
@@ -26578,7 +26586,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="44" t="s">
         <v>298</v>
       </c>
@@ -26592,7 +26600,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>299</v>
       </c>
@@ -26603,7 +26611,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="44" t="s">
         <v>299</v>
       </c>
@@ -26617,7 +26625,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="44" t="s">
         <v>299</v>
       </c>
@@ -26631,7 +26639,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="44" t="s">
         <v>299</v>
       </c>
@@ -26645,7 +26653,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="44" t="s">
         <v>299</v>
       </c>
@@ -26659,7 +26667,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="44" t="s">
         <v>299</v>
       </c>
@@ -26673,7 +26681,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="44" t="s">
         <v>299</v>
       </c>
@@ -26687,7 +26695,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="44" t="s">
         <v>299</v>
       </c>
@@ -26701,7 +26709,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -26712,7 +26720,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="44" t="s">
         <v>94</v>
       </c>
@@ -26726,7 +26734,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="44" t="s">
         <v>94</v>
       </c>
@@ -26740,7 +26748,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="44" t="s">
         <v>94</v>
       </c>
@@ -26754,7 +26762,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="44" t="s">
         <v>94</v>
       </c>
@@ -26768,7 +26776,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="44" t="s">
         <v>94</v>
       </c>
@@ -26782,7 +26790,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="44" t="s">
         <v>94</v>
       </c>
@@ -26796,7 +26804,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="44" t="s">
         <v>94</v>
       </c>
@@ -26810,7 +26818,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="44"/>
       <c r="H86" t="s">
         <v>76</v>
@@ -26819,7 +26827,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="44"/>
       <c r="H87" t="s">
         <v>76</v>
@@ -26828,7 +26836,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="77" t="s">
         <v>356</v>
       </c>
@@ -26850,7 +26858,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>296</v>
       </c>
@@ -26876,7 +26884,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>297</v>
       </c>
@@ -26902,7 +26910,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>298</v>
       </c>
@@ -26928,7 +26936,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>299</v>
       </c>
@@ -26942,7 +26950,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -26956,7 +26964,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H94" t="s">
         <v>76</v>
       </c>
@@ -26964,7 +26972,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="94" t="s">
         <v>410</v>
       </c>
@@ -26986,7 +26994,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>296</v>
       </c>
@@ -27007,7 +27015,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>296</v>
       </c>
@@ -27028,7 +27036,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>296</v>
       </c>
@@ -27049,7 +27057,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H99" t="s">
         <v>76</v>
       </c>
@@ -27057,7 +27065,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="94" t="s">
         <v>412</v>
       </c>
@@ -27079,7 +27087,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>412</v>
       </c>
@@ -27100,7 +27108,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>412</v>
       </c>
@@ -27121,7 +27129,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>412</v>
       </c>
@@ -27142,7 +27150,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H104" t="s">
         <v>76</v>
       </c>
@@ -27265,19 +27273,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>391</v>
       </c>
@@ -27285,7 +27293,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>409</v>
       </c>
@@ -27296,7 +27304,7 @@
         <v>0.54054769805800118</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>409</v>
       </c>
@@ -27307,7 +27315,7 @@
         <v>0.71607519212481041</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>409</v>
       </c>
@@ -27318,7 +27326,7 @@
         <v>0.82799025121859771</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>409</v>
       </c>
@@ -27329,7 +27337,7 @@
         <v>0.80922581798676907</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>409</v>
       </c>
@@ -27340,7 +27348,7 @@
         <v>0.73560375227976449</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>409</v>
       </c>
@@ -27351,7 +27359,7 @@
         <v>0.77352718723476832</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>410</v>
       </c>
@@ -27362,7 +27370,7 @@
         <v>0.70929577487429007</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>410</v>
       </c>
@@ -27373,7 +27381,7 @@
         <v>0.72239286108317868</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>410</v>
       </c>
@@ -27384,7 +27392,7 @@
         <v>0.30780169478334291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>411</v>
       </c>
@@ -27395,7 +27403,7 @@
         <v>0.74018277158435497</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>411</v>
       </c>
@@ -27406,7 +27414,7 @@
         <v>0.761290322580645</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>411</v>
       </c>
@@ -27417,7 +27425,7 @@
         <v>0.92443572129538765</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>411</v>
       </c>
@@ -27428,7 +27436,7 @@
         <v>0.8942307692307695</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>412</v>
       </c>
@@ -27439,7 +27447,7 @@
         <v>0.23418371777538238</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>412</v>
       </c>
@@ -27450,7 +27458,7 @@
         <v>0.7269146515771101</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>412</v>
       </c>
@@ -27471,19 +27479,19 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.54296875" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="121" t="s">
         <v>334</v>
       </c>
@@ -27496,7 +27504,7 @@
       <c r="H1" s="121"/>
       <c r="I1" s="121"/>
     </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>338</v>
       </c>
@@ -27516,7 +27524,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="77" t="s">
         <v>296</v>
       </c>
@@ -27528,7 +27536,7 @@
         <v>0.34719120903556966</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="44" t="s">
         <v>296</v>
       </c>
@@ -27548,7 +27556,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="76" t="s">
         <v>296</v>
       </c>
@@ -27568,7 +27576,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
         <v>296</v>
       </c>
@@ -27588,7 +27596,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>296</v>
       </c>
@@ -27608,7 +27616,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="76" t="s">
         <v>296</v>
       </c>
@@ -27628,7 +27636,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="44" t="s">
         <v>296</v>
       </c>
@@ -27648,7 +27656,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="44" t="s">
         <v>296</v>
       </c>
@@ -27668,7 +27676,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="77" t="s">
         <v>297</v>
       </c>
@@ -27690,7 +27698,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="44" t="s">
         <v>297</v>
       </c>
@@ -27710,7 +27718,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="44" t="s">
         <v>297</v>
       </c>
@@ -27730,7 +27738,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>297</v>
       </c>
@@ -27750,7 +27758,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>297</v>
       </c>
@@ -27770,7 +27778,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
         <v>297</v>
       </c>
@@ -27790,7 +27798,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="44" t="s">
         <v>297</v>
       </c>
@@ -27810,7 +27818,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="44" t="s">
         <v>297</v>
       </c>
@@ -27830,7 +27838,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="77" t="s">
         <v>298</v>
       </c>
@@ -27852,7 +27860,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="44" t="s">
         <v>298</v>
       </c>
@@ -27872,7 +27880,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="44" t="s">
         <v>298</v>
       </c>
@@ -27892,7 +27900,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="44" t="s">
         <v>298</v>
       </c>
@@ -27912,7 +27920,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="44" t="s">
         <v>298</v>
       </c>
@@ -27932,7 +27940,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="44" t="s">
         <v>298</v>
       </c>
@@ -27952,7 +27960,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="44" t="s">
         <v>298</v>
       </c>
@@ -27972,7 +27980,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
         <v>298</v>
       </c>
@@ -27992,7 +28000,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="77" t="s">
         <v>299</v>
       </c>
@@ -28010,7 +28018,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="44" t="s">
         <v>299</v>
       </c>
@@ -28030,7 +28038,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="44" t="s">
         <v>299</v>
       </c>
@@ -28050,7 +28058,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="44" t="s">
         <v>299</v>
       </c>
@@ -28070,7 +28078,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="44" t="s">
         <v>299</v>
       </c>
@@ -28090,7 +28098,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="44" t="s">
         <v>299</v>
       </c>
@@ -28110,7 +28118,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="44" t="s">
         <v>299</v>
       </c>
@@ -28130,7 +28138,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="44" t="s">
         <v>299</v>
       </c>
@@ -28150,7 +28158,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="77" t="s">
         <v>94</v>
       </c>
@@ -28168,7 +28176,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="44" t="s">
         <v>94</v>
       </c>
@@ -28188,7 +28196,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="44" t="s">
         <v>94</v>
       </c>
@@ -28208,7 +28216,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="44" t="s">
         <v>94</v>
       </c>
@@ -28228,7 +28236,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="44" t="s">
         <v>94</v>
       </c>
@@ -28248,7 +28256,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="44" t="s">
         <v>94</v>
       </c>
@@ -28268,7 +28276,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="44" t="s">
         <v>94</v>
       </c>
@@ -28288,7 +28296,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="44" t="s">
         <v>94</v>
       </c>
@@ -28308,7 +28316,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="44"/>
       <c r="D43" s="52">
         <f>SUM(C4:C42)</f>
@@ -28323,10 +28331,10 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="44"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="77" t="s">
         <v>338</v>
       </c>
@@ -28338,7 +28346,7 @@
       </c>
       <c r="D45" s="77"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>296</v>
       </c>
@@ -28362,7 +28370,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>297</v>
       </c>
@@ -28386,7 +28394,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>298</v>
       </c>
@@ -28410,7 +28418,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>299</v>
       </c>
@@ -28430,7 +28438,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -28450,7 +28458,7 @@
         <v>https://www.eia.gov/consumption/commercial/data/2012/#b38-b46</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C51" t="b">
         <f>SUM(C46:C50)=SUM(TableB42!H147:H151)</f>
         <v>1</v>
@@ -28476,20 +28484,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="122" t="s">
         <v>333</v>
       </c>
@@ -28502,7 +28510,7 @@
       <c r="H1" s="122"/>
       <c r="I1" s="122"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="41"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -28519,7 +28527,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>83</v>
       </c>
@@ -28540,7 +28548,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -28550,7 +28558,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="70" t="s">
         <v>87</v>
       </c>
@@ -28560,7 +28568,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>88</v>
       </c>
@@ -28574,7 +28582,7 @@
         <v>89</v>
       </c>
       <c r="E6" s="2">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B6,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B6,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>12.588214000000001</v>
       </c>
       <c r="F6" s="66">
@@ -28591,7 +28599,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>90</v>
       </c>
@@ -28605,7 +28613,7 @@
         <v>89</v>
       </c>
       <c r="E7" s="2">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B7,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B7,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>30.217645999999998</v>
       </c>
       <c r="F7" s="66">
@@ -28622,7 +28630,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -28636,7 +28644,7 @@
         <v>89</v>
       </c>
       <c r="E8">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B8,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B8,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>1.3117239999999999</v>
       </c>
       <c r="F8" s="67">
@@ -28650,7 +28658,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -28664,7 +28672,7 @@
         <v>89</v>
       </c>
       <c r="E9" s="2">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B9,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B9,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>60.555110999999997</v>
       </c>
       <c r="F9" s="66">
@@ -28681,7 +28689,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -28695,7 +28703,7 @@
         <v>89</v>
       </c>
       <c r="E10">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B10,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B10,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>5.548133</v>
       </c>
       <c r="F10" s="67">
@@ -28709,7 +28717,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -28723,7 +28731,7 @@
         <v>89</v>
       </c>
       <c r="E11">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B11,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B11,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>5.1948600000000003</v>
       </c>
       <c r="F11" s="67">
@@ -28737,7 +28745,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -28751,7 +28759,7 @@
         <v>89</v>
       </c>
       <c r="E12">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B12,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B12,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>2.8969999999999998E-3</v>
       </c>
       <c r="F12" s="67">
@@ -28765,7 +28773,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -28779,7 +28787,7 @@
         <v>89</v>
       </c>
       <c r="E13">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B13,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B13,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>3.344913</v>
       </c>
       <c r="F13" s="67">
@@ -28793,7 +28801,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -28807,7 +28815,7 @@
         <v>89</v>
       </c>
       <c r="E14">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B14,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B14,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>0.65997300000000003</v>
       </c>
       <c r="F14" s="67">
@@ -28821,7 +28829,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -28835,7 +28843,7 @@
         <v>89</v>
       </c>
       <c r="E15">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B15,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B15,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>119.42347700000001</v>
       </c>
       <c r="F15" s="67">
@@ -28852,12 +28860,12 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="70" t="s">
         <v>98</v>
       </c>
       <c r="E16" t="str">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B16,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B16,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v/>
       </c>
       <c r="F16" s="42"/>
@@ -28867,7 +28875,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>88</v>
       </c>
@@ -28881,7 +28889,7 @@
         <v>89</v>
       </c>
       <c r="E17" s="2">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B17,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B17,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>12.58821</v>
       </c>
       <c r="F17" s="66">
@@ -28898,7 +28906,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -28912,7 +28920,7 @@
         <v>89</v>
       </c>
       <c r="E18">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B18,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B18,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>1.3117239999999999</v>
       </c>
       <c r="F18" s="67">
@@ -28926,7 +28934,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -28940,7 +28948,7 @@
         <v>89</v>
       </c>
       <c r="E19">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B19,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B19,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>0.65997300000000003</v>
       </c>
       <c r="F19" s="67">
@@ -28954,7 +28962,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>99</v>
       </c>
@@ -28968,7 +28976,7 @@
         <v>89</v>
       </c>
       <c r="E20" s="2">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B20,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B20,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>62.428100999999998</v>
       </c>
       <c r="F20" s="66">
@@ -28985,7 +28993,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>100</v>
       </c>
@@ -28999,7 +29007,7 @@
         <v>89</v>
       </c>
       <c r="E21" s="2">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B21,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B21,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>57.979027000000002</v>
       </c>
       <c r="F21" s="66">
@@ -29016,7 +29024,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -29030,7 +29038,7 @@
         <v>89</v>
       </c>
       <c r="E22">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B22,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B22,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>134.96704099999999</v>
       </c>
       <c r="F22" s="67">
@@ -29047,12 +29055,12 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="70" t="s">
         <v>101</v>
       </c>
       <c r="E23" s="68" t="str">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B23,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B23,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v/>
       </c>
       <c r="F23" s="69"/>
@@ -29062,7 +29070,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>102</v>
       </c>
@@ -29076,7 +29084,7 @@
         <v>89</v>
       </c>
       <c r="E24" s="2">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B24,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B24,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>59.144027999999999</v>
       </c>
       <c r="F24" s="66">
@@ -29093,7 +29101,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>103</v>
       </c>
@@ -29107,7 +29115,7 @@
         <v>89</v>
       </c>
       <c r="E25" s="2">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B25,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B25,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>60.065722999999998</v>
       </c>
       <c r="F25" s="66">
@@ -29124,7 +29132,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -29138,7 +29146,7 @@
         <v>89</v>
       </c>
       <c r="E26">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B26,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B26,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>2.6456879999999998</v>
       </c>
       <c r="F26" s="67">
@@ -29152,7 +29160,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -29166,7 +29174,7 @@
         <v>89</v>
       </c>
       <c r="E27">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B27,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B27,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>4.0547959999999996</v>
       </c>
       <c r="F27" s="67">
@@ -29180,7 +29188,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -29194,7 +29202,7 @@
         <v>89</v>
       </c>
       <c r="E28">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B28,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B28,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>1.6193390000000001</v>
       </c>
       <c r="F28" s="67">
@@ -29208,7 +29216,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -29222,7 +29230,7 @@
         <v>89</v>
       </c>
       <c r="E29">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B29,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B29,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>127.529572</v>
       </c>
       <c r="F29" s="67">
@@ -29239,12 +29247,12 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="70" t="s">
         <v>104</v>
       </c>
       <c r="E30" t="str">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B30,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B30,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v/>
       </c>
       <c r="F30" s="42"/>
@@ -29254,7 +29262,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -29268,7 +29276,7 @@
         <v>89</v>
       </c>
       <c r="E31">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B31,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B31,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>96.368851000000006</v>
       </c>
       <c r="F31" s="67">
@@ -29282,7 +29290,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>103</v>
       </c>
@@ -29296,7 +29304,7 @@
         <v>89</v>
       </c>
       <c r="E32" s="2">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B32,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B32,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>47.877865</v>
       </c>
       <c r="F32" s="66">
@@ -29312,7 +29320,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -29326,7 +29334,7 @@
         <v>89</v>
       </c>
       <c r="E33">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B33,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B33,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>7.1852200000000002</v>
       </c>
       <c r="F33" s="67">
@@ -29340,7 +29348,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -29354,7 +29362,7 @@
         <v>89</v>
       </c>
       <c r="E34">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B34,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B34,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>151.43194600000001</v>
       </c>
       <c r="F34" s="67">
@@ -29368,12 +29376,12 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="70" t="s">
         <v>105</v>
       </c>
       <c r="E35" t="str">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B35,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B35,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v/>
       </c>
       <c r="F35" s="42"/>
@@ -29383,7 +29391,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>102</v>
       </c>
@@ -29397,7 +29405,7 @@
         <v>89</v>
       </c>
       <c r="E36" s="2">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B36,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B36,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>82.851837000000003</v>
       </c>
       <c r="F36" s="66">
@@ -29414,7 +29422,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>103</v>
       </c>
@@ -29428,7 +29436,7 @@
         <v>89</v>
       </c>
       <c r="E37" s="2">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B37,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B37,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>19.328499000000001</v>
       </c>
       <c r="F37" s="66">
@@ -29445,7 +29453,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -29459,7 +29467,7 @@
         <v>89</v>
       </c>
       <c r="E38">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B38,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B38,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>102.180336</v>
       </c>
       <c r="F38" s="67">
@@ -29476,12 +29484,12 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="70" t="s">
         <v>106</v>
       </c>
       <c r="E39" t="str">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B39,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B39,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v/>
       </c>
       <c r="H39" s="2"/>
@@ -29490,7 +29498,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>107</v>
       </c>
@@ -29504,7 +29512,7 @@
         <v>89</v>
       </c>
       <c r="E40">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B40,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B40,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>168.42892499999999</v>
       </c>
       <c r="H40" s="2"/>
@@ -29513,7 +29521,7 @@
         <v>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;sourcekey=0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>108</v>
       </c>
@@ -29527,7 +29535,7 @@
         <v>89</v>
       </c>
       <c r="E41">
-        <f>IFERROR(INDEX(Res_Prev!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B41,Res_Prev!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,Res_Prev!$E$5:$AJ$5,0)),"")</f>
+        <f>IFERROR(INDEX('AEO21 Table 21'!$E$8:$AJ$93,MATCH('Summary_Res Appliances'!$B41,'AEO21 Table 21'!$B$8:$B$93,0),MATCH('Summary_Res Appliances'!$E$3,'AEO21 Table 21'!$E$5:$AJ$5,0)),"")</f>
         <v>44.426056000000003</v>
       </c>
       <c r="H41" s="2"/>
@@ -29585,22 +29593,22 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="105" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="105" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="104" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="104" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="104" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="105" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" style="105" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="105" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="105" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="104" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" style="104" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="104" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" style="105" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.54296875" style="105" customWidth="1"/>
     <col min="8" max="16384" width="9" style="105"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="124" t="s">
         <v>433</v>
       </c>
@@ -29617,7 +29625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="124"/>
       <c r="B2" s="110"/>
       <c r="C2" s="101" t="s">
@@ -29632,7 +29640,7 @@
       <c r="F2" s="124"/>
       <c r="G2" s="102"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="103" t="s">
         <v>324</v>
       </c>
@@ -29656,7 +29664,7 @@
         <v>ISIC 28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="103" t="s">
         <v>324</v>
       </c>
@@ -29680,7 +29688,7 @@
         <v>ISIC 41T43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="103" t="s">
         <v>325</v>
       </c>
@@ -29704,7 +29712,7 @@
         <v>ISIC 28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="103" t="s">
         <v>325</v>
       </c>
@@ -29728,7 +29736,7 @@
         <v>ISIC 41T43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="103" t="s">
         <v>331</v>
       </c>
@@ -29752,7 +29760,7 @@
         <v>ISIC 27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="103" t="s">
         <v>331</v>
       </c>
@@ -29776,7 +29784,7 @@
         <v>ISIC 41T43</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="103" t="s">
         <v>393</v>
       </c>
@@ -29800,7 +29808,7 @@
         <v>ISIC 27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="103" t="s">
         <v>393</v>
       </c>
@@ -29824,7 +29832,7 @@
         <v>ISIC 41T43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="103" t="s">
         <v>72</v>
       </c>
@@ -29851,7 +29859,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="103" t="s">
         <v>72</v>
       </c>
@@ -29878,7 +29886,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" s="106"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -29886,7 +29894,7 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -29895,7 +29903,7 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -29904,7 +29912,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -29913,7 +29921,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -29922,41 +29930,41 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C45" s="104"/>
       <c r="D45" s="104"/>
       <c r="E45" s="104"/>
       <c r="F45" s="105"/>
       <c r="G45" s="105"/>
     </row>
-    <row r="46" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="105"/>
       <c r="B46" s="105"/>
       <c r="C46" s="104"/>
@@ -29965,7 +29973,7 @@
       <c r="F46" s="105"/>
       <c r="G46" s="105"/>
     </row>
-    <row r="47" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="105"/>
       <c r="B47" s="105"/>
       <c r="C47" s="104"/>
@@ -29974,7 +29982,7 @@
       <c r="F47" s="105"/>
       <c r="G47" s="105"/>
     </row>
-    <row r="48" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="105"/>
       <c r="B48" s="105"/>
       <c r="C48" s="104"/>
@@ -29983,7 +29991,7 @@
       <c r="F48" s="105"/>
       <c r="G48" s="105"/>
     </row>
-    <row r="49" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="105"/>
       <c r="B49" s="105"/>
       <c r="C49" s="104"/>
@@ -30008,35 +30016,35 @@
   <dimension ref="A1:AK93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="38" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="75.42578125" customWidth="1"/>
+    <col min="2" max="2" width="75.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>83</v>
       </c>
@@ -30146,7 +30154,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -30154,7 +30162,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -30162,7 +30170,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -30272,7 +30280,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -30382,7 +30390,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -30492,7 +30500,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -30602,7 +30610,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -30712,7 +30720,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -30822,7 +30830,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -30932,7 +30940,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -31042,7 +31050,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -31152,7 +31160,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -31262,7 +31270,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -31270,7 +31278,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -31380,7 +31388,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -31490,7 +31498,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -31600,7 +31608,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -31710,7 +31718,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -31820,7 +31828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -31930,7 +31938,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -31938,7 +31946,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -32048,7 +32056,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -32158,7 +32166,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -32268,7 +32276,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -32378,7 +32386,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -32488,7 +32496,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -32598,7 +32606,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -32606,7 +32614,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -32716,7 +32724,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -32826,7 +32834,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -32936,7 +32944,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -33046,7 +33054,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>105</v>
       </c>
@@ -33054,7 +33062,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -33164,7 +33172,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>103</v>
       </c>
@@ -33274,7 +33282,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -33384,7 +33392,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>106</v>
       </c>
@@ -33392,7 +33400,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>107</v>
       </c>
@@ -33502,7 +33510,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>108</v>
       </c>
@@ -33612,7 +33620,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>109</v>
       </c>
@@ -33620,7 +33628,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -33628,7 +33636,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>110</v>
       </c>
@@ -33738,7 +33746,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>112</v>
       </c>
@@ -33848,7 +33856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>114</v>
       </c>
@@ -33958,7 +33966,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>116</v>
       </c>
@@ -34068,7 +34076,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -34178,7 +34186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>119</v>
       </c>
@@ -34186,7 +34194,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>120</v>
       </c>
@@ -34296,7 +34304,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -34406,7 +34414,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>122</v>
       </c>
@@ -34516,7 +34524,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -34626,7 +34634,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>125</v>
       </c>
@@ -34736,7 +34744,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>126</v>
       </c>
@@ -34744,7 +34752,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>127</v>
       </c>
@@ -34854,7 +34862,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>129</v>
       </c>
@@ -34964,7 +34972,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>130</v>
       </c>
@@ -35074,7 +35082,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -35184,7 +35192,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>132</v>
       </c>
@@ -35192,7 +35200,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>107</v>
       </c>
@@ -35302,7 +35310,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>108</v>
       </c>
@@ -35412,7 +35420,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>134</v>
       </c>
@@ -35420,7 +35428,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -35428,7 +35436,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>136</v>
       </c>
@@ -35538,7 +35546,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>138</v>
       </c>
@@ -35648,7 +35656,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>139</v>
       </c>
@@ -35758,7 +35766,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>119</v>
       </c>
@@ -35766,7 +35774,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>136</v>
       </c>
@@ -35876,7 +35884,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>138</v>
       </c>
@@ -35986,7 +35994,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>139</v>
       </c>
@@ -36096,7 +36104,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>140</v>
       </c>
@@ -36104,7 +36112,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>141</v>
       </c>
@@ -36112,7 +36120,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>142</v>
       </c>
@@ -36120,7 +36128,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>143</v>
       </c>
@@ -36230,7 +36238,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>146</v>
       </c>
@@ -36340,7 +36348,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>147</v>
       </c>
@@ -36450,7 +36458,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -36560,7 +36568,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>148</v>
       </c>
@@ -36568,7 +36576,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>143</v>
       </c>
@@ -36678,7 +36686,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>146</v>
       </c>
@@ -36788,7 +36796,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>147</v>
       </c>
@@ -36898,7 +36906,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -37008,7 +37016,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>150</v>
       </c>
@@ -37016,7 +37024,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>151</v>
       </c>
@@ -37126,7 +37134,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>152</v>
       </c>
@@ -37236,7 +37244,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>153</v>
       </c>
@@ -37244,7 +37252,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>143</v>
       </c>
@@ -37354,7 +37362,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>146</v>
       </c>
@@ -37464,7 +37472,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>147</v>
       </c>
@@ -37574,7 +37582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>1</v>
       </c>
